--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -646,62 +646,62 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Aircraft Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,37 +721,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -646,62 +646,62 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Compass Stuck Restart</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aircraft Contact DJI Support if this persists</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,37 +721,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
